--- a/biology/Botanique/Orchis_globuleux/Orchis_globuleux.xlsx
+++ b/biology/Botanique/Orchis_globuleux/Orchis_globuleux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Traunsteinera globosa
 L'orchis globuleux (Traunsteinera globosa) est une espèce d'orchidées terrestres européenne.
@@ -512,11 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les feuilles glauques, sont toutes portées par la tige, haute de 20 à 60 cm.
 Fleurs roses ou mauves en épi très dense.
-Fleurs à éperon court, labelle moucheté, lobes latéraux assez courts, pétales et sépales se terminant par un filet spatulé[1].
+Fleurs à éperon court, labelle moucheté, lobes latéraux assez courts, pétales et sépales se terminant par un filet spatulé.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Floraison</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mai à août[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mai à août.
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Prairies calcaires, de 900 à 2 600 m[3]. Des Pyrénées à proximité de la mer Noire.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Prairies calcaires, de 900 à 2 600 m. Des Pyrénées à proximité de la mer Noire.
 </t>
         </is>
       </c>
